--- a/data/output/FV2504_FV2410/UTILMD/55220.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55220.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="419">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="419">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1471,6 +1471,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U188" totalsRowShown="0">
+  <autoFilter ref="A1:U188"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1760,7 +1790,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9965,5 +9998,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55220.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55220.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="600">
   <si>
     <t>#</t>
   </si>
@@ -3005,48 +3005,46 @@
       <c r="V12" s="9"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M13" s="5" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5" t="s">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5" t="s">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V13" s="5"/>
+      <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="5" t="s">
@@ -3076,9 +3074,7 @@
         <v>219</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="5" t="s">
         <v>24</v>
       </c>
@@ -3132,9 +3128,7 @@
       <c r="K15" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="5" t="s">
         <v>24</v>
       </c>
@@ -3188,9 +3182,7 @@
         <v>219</v>
       </c>
       <c r="K16" s="5"/>
-      <c r="L16" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="5" t="s">
         <v>24</v>
       </c>
@@ -3217,44 +3209,42 @@
       <c r="V16" s="5"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M17" s="5" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5" t="s">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V17" s="5"/>
+      <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="5" t="s">
@@ -3280,9 +3270,7 @@
         <v>218</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="5" t="s">
         <v>25</v>
       </c>
@@ -3334,9 +3322,7 @@
         <v>219</v>
       </c>
       <c r="K19" s="5"/>
-      <c r="L19" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="5" t="s">
         <v>25</v>
       </c>
@@ -3392,9 +3378,7 @@
         <v>219</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="5" t="s">
         <v>25</v>
       </c>
@@ -3450,9 +3434,7 @@
         <v>219</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="5" t="s">
         <v>25</v>
       </c>
@@ -3508,9 +3490,7 @@
         <v>219</v>
       </c>
       <c r="K22" s="5"/>
-      <c r="L22" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="5" t="s">
         <v>25</v>
       </c>
@@ -3537,44 +3517,42 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="V23" s="5"/>
+      <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="5" t="s">
@@ -3600,9 +3578,7 @@
         <v>218</v>
       </c>
       <c r="K24" s="5"/>
-      <c r="L24" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="5" t="s">
         <v>26</v>
       </c>
@@ -3654,9 +3630,7 @@
         <v>219</v>
       </c>
       <c r="K25" s="5"/>
-      <c r="L25" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="5" t="s">
         <v>26</v>
       </c>
@@ -3712,9 +3686,7 @@
         <v>219</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="5" t="s">
         <v>26</v>
       </c>
@@ -3741,52 +3713,50 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5" t="s">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5" t="s">
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V27" s="5"/>
+      <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="5" t="s">
@@ -3818,9 +3788,7 @@
       <c r="K28" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
         <v>27</v>
       </c>
@@ -3878,9 +3846,7 @@
         <v>223</v>
       </c>
       <c r="K29" s="5"/>
-      <c r="L29" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="5" t="s">
         <v>27</v>
       </c>
@@ -3936,9 +3902,7 @@
         <v>223</v>
       </c>
       <c r="K30" s="5"/>
-      <c r="L30" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="5" t="s">
         <v>27</v>
       </c>
@@ -3992,9 +3956,7 @@
         <v>223</v>
       </c>
       <c r="K31" s="5"/>
-      <c r="L31" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="5" t="s">
         <v>27</v>
       </c>
@@ -4048,9 +4010,7 @@
         <v>223</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="5" t="s">
         <v>27</v>
       </c>
@@ -4104,9 +4064,7 @@
         <v>223</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="5" t="s">
         <v>27</v>
       </c>
@@ -4133,44 +4091,42 @@
       <c r="V33" s="5"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M34" s="5" t="s">
+      <c r="K34" s="2"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5" t="s">
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V34" s="5"/>
+      <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
@@ -4196,9 +4152,7 @@
         <v>218</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="5" t="s">
         <v>28</v>
       </c>
@@ -4250,9 +4204,7 @@
         <v>219</v>
       </c>
       <c r="K36" s="5"/>
-      <c r="L36" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="5" t="s">
         <v>28</v>
       </c>
@@ -4368,9 +4320,7 @@
         <v>219</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
         <v>28</v>
       </c>
@@ -4426,9 +4376,7 @@
         <v>219</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="5" t="s">
         <v>28</v>
       </c>
@@ -4455,44 +4403,42 @@
       <c r="V39" s="5"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M40" s="5" t="s">
+      <c r="K40" s="2"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5" t="s">
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V40" s="5"/>
+      <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
@@ -4518,9 +4464,7 @@
         <v>218</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>29</v>
       </c>
@@ -4572,9 +4516,7 @@
         <v>219</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
         <v>29</v>
       </c>
@@ -4630,9 +4572,7 @@
         <v>219</v>
       </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="5" t="s">
         <v>29</v>
       </c>
@@ -5465,46 +5405,44 @@
       </c>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5" t="s">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="L63" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M63" s="5" t="s">
+      <c r="L63" s="4"/>
+      <c r="M63" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5" t="s">
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="V63" s="5" t="s">
+      <c r="V63" s="2" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5677,44 +5615,42 @@
       </c>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5" t="s">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K67" s="5"/>
-      <c r="L67" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M67" s="5" t="s">
+      <c r="K67" s="2"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="N67" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5" t="s">
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V67" s="5"/>
+      <c r="V67" s="2"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -8562,9 +8498,7 @@
         <v>218</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>35</v>
       </c>
@@ -8815,52 +8749,50 @@
       </c>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5" t="s">
+      <c r="E141" s="2"/>
+      <c r="F141" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5" t="s">
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M141" s="5" t="s">
+      <c r="K141" s="2"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N141" s="5" t="s">
+      <c r="N141" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O141" s="5" t="s">
+      <c r="O141" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5" t="s">
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5" t="s">
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V141" s="5"/>
+      <c r="V141" s="2"/>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="5" t="s">
@@ -8892,9 +8824,7 @@
         <v>219</v>
       </c>
       <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>36</v>
       </c>
@@ -9012,9 +8942,7 @@
         <v>230</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>36</v>
       </c>
@@ -9170,9 +9098,7 @@
         <v>218</v>
       </c>
       <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L147" s="4"/>
       <c r="M147" s="5" t="s">
         <v>37</v>
       </c>
@@ -9224,9 +9150,7 @@
         <v>219</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>37</v>
       </c>
@@ -9284,9 +9208,7 @@
       <c r="K149" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="L149" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>37</v>
       </c>
@@ -9440,9 +9362,7 @@
         <v>218</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>38</v>
       </c>
@@ -9494,9 +9414,7 @@
         <v>219</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>38</v>
       </c>
@@ -9554,9 +9472,7 @@
       <c r="K154" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="L154" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>38</v>
       </c>
@@ -9614,9 +9530,7 @@
         <v>219</v>
       </c>
       <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>38</v>
       </c>
@@ -9710,9 +9624,7 @@
         <v>218</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>39</v>
       </c>
@@ -9764,9 +9676,7 @@
         <v>219</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>39</v>
       </c>
@@ -9822,9 +9732,7 @@
         <v>219</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>39</v>
       </c>
@@ -9878,9 +9786,7 @@
         <v>219</v>
       </c>
       <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>39</v>
       </c>
@@ -9996,9 +9902,7 @@
         <v>219</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>39</v>
       </c>
@@ -10094,9 +9998,7 @@
         <v>218</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>40</v>
       </c>
@@ -10148,9 +10050,7 @@
         <v>219</v>
       </c>
       <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>40</v>
       </c>
@@ -10206,9 +10106,7 @@
         <v>219</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>40</v>
       </c>
@@ -10302,9 +10200,7 @@
         <v>218</v>
       </c>
       <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>41</v>
       </c>
@@ -10356,9 +10252,7 @@
         <v>219</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>41</v>
       </c>
@@ -10416,9 +10310,7 @@
         <v>219</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>41</v>
       </c>
@@ -10476,9 +10368,7 @@
       <c r="K171" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="L171" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>41</v>
       </c>
@@ -10574,9 +10464,7 @@
         <v>218</v>
       </c>
       <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L173" s="4"/>
       <c r="M173" s="5" t="s">
         <v>42</v>
       </c>
@@ -10628,9 +10516,7 @@
         <v>219</v>
       </c>
       <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>42</v>
       </c>
@@ -10686,9 +10572,7 @@
         <v>219</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>42</v>
       </c>
@@ -10782,9 +10666,7 @@
         <v>218</v>
       </c>
       <c r="K177" s="5"/>
-      <c r="L177" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>43</v>
       </c>
@@ -10836,9 +10718,7 @@
         <v>219</v>
       </c>
       <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L178" s="4"/>
       <c r="M178" s="5" t="s">
         <v>43</v>
       </c>
@@ -10894,9 +10774,7 @@
         <v>219</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>43</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILMD/55220.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55220.xlsx
@@ -1998,7 +1998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2027,11 +2027,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2471,7 +2477,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2835,7 +2841,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3027,7 +3033,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -3229,7 +3235,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3537,7 +3543,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3737,7 +3743,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4111,7 +4117,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4423,7 +4429,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4605,24 +4611,24 @@
       <c r="B44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10" t="s">
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="11" t="s">
+      <c r="K44" s="11"/>
+      <c r="L44" s="12" t="s">
         <v>257</v>
       </c>
       <c r="M44" s="5"/>
@@ -4640,33 +4646,33 @@
       <c r="A45" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10" t="s">
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="11" t="s">
+      <c r="J45" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K45" s="11"/>
+      <c r="L45" s="12" t="s">
         <v>257</v>
       </c>
       <c r="M45" s="5"/>
@@ -4684,33 +4690,33 @@
       <c r="A46" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10" t="s">
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="12" t="s">
         <v>257</v>
       </c>
       <c r="M46" s="5"/>
@@ -4728,33 +4734,33 @@
       <c r="A47" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10" t="s">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="J47" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="11" t="s">
+      <c r="J47" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K47" s="11"/>
+      <c r="L47" s="12" t="s">
         <v>257</v>
       </c>
       <c r="M47" s="5"/>
@@ -4775,24 +4781,24 @@
       <c r="B48" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10" t="s">
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="11" t="s">
+      <c r="K48" s="11"/>
+      <c r="L48" s="12" t="s">
         <v>257</v>
       </c>
       <c r="M48" s="5"/>
@@ -4810,33 +4816,33 @@
       <c r="A49" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10" t="s">
+      <c r="H49" s="11"/>
+      <c r="I49" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="J49" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11" t="s">
+      <c r="J49" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="12" t="s">
         <v>257</v>
       </c>
       <c r="M49" s="5"/>
@@ -4854,31 +4860,31 @@
       <c r="A50" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10" t="s">
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="11" t="s">
+      <c r="K50" s="11"/>
+      <c r="L50" s="12" t="s">
         <v>257</v>
       </c>
       <c r="M50" s="5"/>
@@ -4896,33 +4902,33 @@
       <c r="A51" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10" t="s">
+      <c r="H51" s="11"/>
+      <c r="I51" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="11" t="s">
+      <c r="J51" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K51" s="11"/>
+      <c r="L51" s="12" t="s">
         <v>257</v>
       </c>
       <c r="M51" s="5"/>
@@ -4943,26 +4949,26 @@
       <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10" t="s">
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="12" t="s">
         <v>257</v>
       </c>
       <c r="M52" s="5"/>
@@ -4980,33 +4986,33 @@
       <c r="A53" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10" t="s">
+      <c r="H53" s="11"/>
+      <c r="I53" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="K53" s="10"/>
-      <c r="L53" s="11" t="s">
+      <c r="J53" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K53" s="11"/>
+      <c r="L53" s="12" t="s">
         <v>257</v>
       </c>
       <c r="M53" s="5"/>
@@ -5024,33 +5030,33 @@
       <c r="A54" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10" t="s">
+      <c r="H54" s="11"/>
+      <c r="I54" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="11" t="s">
+      <c r="J54" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="L54" s="12" t="s">
         <v>257</v>
       </c>
       <c r="M54" s="5"/>
@@ -5081,7 +5087,7 @@
       <c r="L55" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M55" s="9" t="s">
+      <c r="M55" s="13" t="s">
         <v>258</v>
       </c>
       <c r="N55" s="9" t="s">
@@ -5207,7 +5213,7 @@
       <c r="L58" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M58" s="9" t="s">
+      <c r="M58" s="13" t="s">
         <v>259</v>
       </c>
       <c r="N58" s="9" t="s">
@@ -5427,7 +5433,7 @@
         <v>243</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5635,7 +5641,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5835,7 +5841,7 @@
       <c r="L71" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M71" s="9" t="s">
+      <c r="M71" s="13" t="s">
         <v>260</v>
       </c>
       <c r="N71" s="9" t="s">
@@ -5995,7 +6001,7 @@
       <c r="L75" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M75" s="9" t="s">
+      <c r="M75" s="13" t="s">
         <v>261</v>
       </c>
       <c r="N75" s="9" t="s">
@@ -6283,7 +6289,7 @@
       <c r="L82" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M82" s="9" t="s">
+      <c r="M82" s="13" t="s">
         <v>262</v>
       </c>
       <c r="N82" s="9" t="s">
@@ -6453,7 +6459,7 @@
       <c r="L86" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M86" s="9" t="s">
+      <c r="M86" s="13" t="s">
         <v>263</v>
       </c>
       <c r="N86" s="9" t="s">
@@ -6623,7 +6629,7 @@
       <c r="L90" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M90" s="9" t="s">
+      <c r="M90" s="13" t="s">
         <v>264</v>
       </c>
       <c r="N90" s="9" t="s">
@@ -6825,7 +6831,7 @@
       <c r="L95" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M95" s="9" t="s">
+      <c r="M95" s="13" t="s">
         <v>265</v>
       </c>
       <c r="N95" s="9" t="s">
@@ -7037,7 +7043,7 @@
       <c r="L100" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M100" s="9" t="s">
+      <c r="M100" s="13" t="s">
         <v>266</v>
       </c>
       <c r="N100" s="9" t="s">
@@ -7207,7 +7213,7 @@
       <c r="L104" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M104" s="9" t="s">
+      <c r="M104" s="13" t="s">
         <v>267</v>
       </c>
       <c r="N104" s="9" t="s">
@@ -7377,7 +7383,7 @@
       <c r="L108" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M108" s="9" t="s">
+      <c r="M108" s="13" t="s">
         <v>268</v>
       </c>
       <c r="N108" s="9" t="s">
@@ -7579,7 +7585,7 @@
       <c r="L113" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M113" s="9" t="s">
+      <c r="M113" s="13" t="s">
         <v>269</v>
       </c>
       <c r="N113" s="9" t="s">
@@ -7823,7 +7829,7 @@
       <c r="L119" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M119" s="9" t="s">
+      <c r="M119" s="13" t="s">
         <v>270</v>
       </c>
       <c r="N119" s="9" t="s">
@@ -7941,7 +7947,7 @@
       <c r="L122" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M122" s="9" t="s">
+      <c r="M122" s="13" t="s">
         <v>271</v>
       </c>
       <c r="N122" s="9" t="s">
@@ -8109,7 +8115,7 @@
       <c r="L126" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M126" s="9" t="s">
+      <c r="M126" s="13" t="s">
         <v>272</v>
       </c>
       <c r="N126" s="9" t="s">
@@ -8279,7 +8285,7 @@
       <c r="L130" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M130" s="9" t="s">
+      <c r="M130" s="13" t="s">
         <v>273</v>
       </c>
       <c r="N130" s="9" t="s">
@@ -8431,21 +8437,21 @@
       <c r="V133" s="9"/>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
       <c r="J134" s="6" t="s">
         <v>218</v>
       </c>
@@ -8455,18 +8461,18 @@
       <c r="L134" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M134" s="5" t="s">
+      <c r="M134" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N134" s="5" t="s">
+      <c r="N134" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
-      <c r="S134" s="5"/>
-      <c r="T134" s="5"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
       <c r="U134" s="6" t="s">
         <v>390</v>
       </c>
@@ -8773,7 +8779,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9031,21 +9037,21 @@
       </c>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
       <c r="J146" s="6" t="s">
         <v>232</v>
       </c>
@@ -9055,18 +9061,18 @@
       <c r="L146" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M146" s="5" t="s">
+      <c r="M146" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N146" s="5" t="s">
+      <c r="N146" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
       <c r="U146" s="6" t="s">
         <v>396</v>
       </c>
@@ -9297,21 +9303,21 @@
       <c r="V150" s="5"/>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
       <c r="J151" s="6" t="s">
         <v>218</v>
       </c>
@@ -9319,18 +9325,18 @@
       <c r="L151" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M151" s="5" t="s">
+      <c r="M151" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N151" s="5" t="s">
+      <c r="N151" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="5"/>
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
       <c r="U151" s="6" t="s">
         <v>390</v>
       </c>
@@ -9559,21 +9565,21 @@
       <c r="V155" s="5"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
       <c r="J156" s="6" t="s">
         <v>218</v>
       </c>
@@ -9581,18 +9587,18 @@
       <c r="L156" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M156" s="5" t="s">
+      <c r="M156" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N156" s="5" t="s">
+      <c r="N156" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
       <c r="U156" s="6" t="s">
         <v>390</v>
       </c>
@@ -9931,21 +9937,21 @@
       <c r="V162" s="5"/>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
       <c r="J163" s="6" t="s">
         <v>236</v>
       </c>
@@ -9955,18 +9961,18 @@
       <c r="L163" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M163" s="5" t="s">
+      <c r="M163" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N163" s="5" t="s">
+      <c r="N163" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O163" s="5"/>
-      <c r="P163" s="5"/>
-      <c r="Q163" s="5"/>
-      <c r="R163" s="5"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="5"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
       <c r="U163" s="6" t="s">
         <v>397</v>
       </c>
@@ -10133,21 +10139,21 @@
       <c r="V166" s="5"/>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
       <c r="J167" s="6" t="s">
         <v>236</v>
       </c>
@@ -10157,18 +10163,18 @@
       <c r="L167" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M167" s="5" t="s">
+      <c r="M167" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N167" s="5" t="s">
+      <c r="N167" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O167" s="5"/>
-      <c r="P167" s="5"/>
-      <c r="Q167" s="5"/>
-      <c r="R167" s="5"/>
-      <c r="S167" s="5"/>
-      <c r="T167" s="5"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
       <c r="U167" s="6" t="s">
         <v>397</v>
       </c>
@@ -10397,21 +10403,21 @@
       </c>
     </row>
     <row r="172" spans="1:22">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
       <c r="J172" s="6" t="s">
         <v>238</v>
       </c>
@@ -10421,18 +10427,18 @@
       <c r="L172" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M172" s="5" t="s">
+      <c r="M172" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N172" s="5" t="s">
+      <c r="N172" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O172" s="5"/>
-      <c r="P172" s="5"/>
-      <c r="Q172" s="5"/>
-      <c r="R172" s="5"/>
-      <c r="S172" s="5"/>
-      <c r="T172" s="5"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="2"/>
       <c r="U172" s="6" t="s">
         <v>390</v>
       </c>
@@ -10599,21 +10605,21 @@
       <c r="V175" s="5"/>
     </row>
     <row r="176" spans="1:22">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
       <c r="J176" s="6" t="s">
         <v>238</v>
       </c>
@@ -10623,18 +10629,18 @@
       <c r="L176" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M176" s="5" t="s">
+      <c r="M176" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N176" s="5" t="s">
+      <c r="N176" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O176" s="5"/>
-      <c r="P176" s="5"/>
-      <c r="Q176" s="5"/>
-      <c r="R176" s="5"/>
-      <c r="S176" s="5"/>
-      <c r="T176" s="5"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
       <c r="U176" s="6" t="s">
         <v>390</v>
       </c>
@@ -10817,7 +10823,7 @@
       <c r="L180" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M180" s="9" t="s">
+      <c r="M180" s="13" t="s">
         <v>274</v>
       </c>
       <c r="N180" s="9" t="s">
@@ -10935,7 +10941,7 @@
       <c r="L183" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M183" s="9" t="s">
+      <c r="M183" s="13" t="s">
         <v>275</v>
       </c>
       <c r="N183" s="9" t="s">
@@ -11045,48 +11051,48 @@
       </c>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5" t="s">
+      <c r="C186" s="2"/>
+      <c r="D186" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E186" s="5"/>
+      <c r="E186" s="2"/>
       <c r="F186" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5" t="s">
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K186" s="5"/>
+      <c r="K186" s="2"/>
       <c r="L186" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M186" s="5" t="s">
+      <c r="M186" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N186" s="5"/>
-      <c r="O186" s="5" t="s">
+      <c r="N186" s="2"/>
+      <c r="O186" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P186" s="5"/>
+      <c r="P186" s="2"/>
       <c r="Q186" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="R186" s="5"/>
-      <c r="S186" s="5"/>
-      <c r="T186" s="5"/>
-      <c r="U186" s="5" t="s">
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V186" s="5"/>
+      <c r="V186" s="2"/>
     </row>
     <row r="187" spans="1:22">
       <c r="A187" s="5" t="s">
